--- a/metadata_ddl/Excel/turbovault4dbt_template.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoffmann\Documents\VSC\Turbovault4dbt\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E8D781-9104-46A1-A48A-C6B5DAEB07DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B4625-A9B0-4313-B6A8-E1D5E2E64905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2490" windowWidth="28800" windowHeight="15450" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_hub" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -150,13 +150,22 @@
   </si>
   <si>
     <t>Load_Date_Column</t>
+  </si>
+  <si>
+    <t>MA_Satellite_Identifier</t>
+  </si>
+  <si>
+    <t>NH_Link_Identifier</t>
+  </si>
+  <si>
+    <t>NH_Satellite_Identifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -191,14 +200,37 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +239,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,9 +262,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -235,17 +272,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,130 +510,132 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" customWidth="1"/>
-    <col min="5" max="5" width="30.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -605,128 +650,131 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="10" width="28.6328125" customWidth="1"/>
-    <col min="11" max="11" width="27.7265625" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -742,270 +790,276 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H24"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="5" max="6" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1020,124 +1074,125 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="6" width="26.08984375" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1151,112 +1206,116 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
-    <col min="9" max="10" width="28.6328125" customWidth="1"/>
-    <col min="11" max="11" width="27.7265625" customWidth="1"/>
-    <col min="13" max="13" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="8"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="8"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1268,176 +1327,177 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G16"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="4" width="26.90625" customWidth="1"/>
-    <col min="5" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,46 +1512,48 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1506,105 +1568,106 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="3" width="23.90625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" customWidth="1"/>
-    <col min="7" max="7" width="40.08984375" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="12"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metadata_ddl/Excel/turbovault4dbt_template.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoffmann\Documents\VSC\Turbovault4dbt\turbovault4dbt\metadata_ddl\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e720170\PycharmProjects\pythonProject\dbt-env\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B4625-A9B0-4313-B6A8-E1D5E2E64905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE645D-1989-4231-A644-F4075A6A3EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_hub" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>NH_Satellite_Identifier</t>
+  </si>
+  <si>
+    <t>Record_Tracking_Satellite</t>
+  </si>
+  <si>
+    <t>Is_Primary_Source</t>
+  </si>
+  <si>
+    <t>Group_Name</t>
   </si>
 </sst>
 </file>
@@ -187,11 +196,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -225,6 +229,13 @@
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,29 +280,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,47 +516,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="H1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -555,8 +576,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -564,8 +586,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -573,8 +596,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -582,8 +606,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -591,8 +616,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -600,8 +626,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -609,8 +636,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -619,7 +647,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -628,7 +656,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -639,6 +667,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -647,92 +676,97 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="N1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -743,7 +777,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -754,7 +788,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -765,7 +799,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -786,112 +820,121 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -901,7 +944,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -911,7 +954,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -921,7 +964,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -931,7 +974,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -941,7 +984,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -951,7 +994,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -961,7 +1004,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -971,7 +1014,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -981,7 +1024,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -991,7 +1034,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -1001,7 +1044,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -1011,7 +1054,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -1021,7 +1064,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -1031,7 +1074,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -1041,7 +1084,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1051,7 +1094,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1063,6 +1106,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1071,55 +1115,58 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1130,7 +1177,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1141,7 +1188,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1152,46 +1199,46 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -1204,114 +1251,120 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="N1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,47 +1377,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -1373,7 +1429,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1382,7 +1438,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1391,7 +1447,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -1400,7 +1456,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -1409,7 +1465,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -1418,7 +1474,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -1427,7 +1483,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -1436,7 +1492,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -1445,7 +1501,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -1454,7 +1510,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -1463,7 +1519,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -1472,7 +1528,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -1481,7 +1537,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -1490,7 +1546,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -1509,51 +1565,58 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,111 +1628,119 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metadata_ddl/Excel/turbovault4dbt_template.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_template.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e720170\PycharmProjects\pythonProject\dbt-env\turbovault4dbt\metadata_ddl\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\software\datavaultstarter\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE645D-1989-4231-A644-F4075A6A3EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A8689-1D96-4A6A-948F-EEFA6EFCFC89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="standard_hub" sheetId="1" r:id="rId1"/>
-    <sheet name="standard_link" sheetId="2" r:id="rId2"/>
-    <sheet name="standard_satellite" sheetId="3" r:id="rId3"/>
-    <sheet name="multiactive_satellite" sheetId="4" r:id="rId4"/>
-    <sheet name="non_historized_link" sheetId="5" r:id="rId5"/>
-    <sheet name="non_historized_satellite" sheetId="6" r:id="rId6"/>
-    <sheet name="pit" sheetId="7" r:id="rId7"/>
-    <sheet name="source_data" sheetId="8" r:id="rId8"/>
+    <sheet name="source_data" sheetId="8" r:id="rId1"/>
+    <sheet name="standard_hub" sheetId="1" r:id="rId2"/>
+    <sheet name="standard_link" sheetId="2" r:id="rId3"/>
+    <sheet name="standard_satellite" sheetId="3" r:id="rId4"/>
+    <sheet name="multiactive_satellite" sheetId="4" r:id="rId5"/>
+    <sheet name="non_historized_link" sheetId="5" r:id="rId6"/>
+    <sheet name="non_historized_satellite" sheetId="6" r:id="rId7"/>
+    <sheet name="pit" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -168,13 +169,28 @@
   </si>
   <si>
     <t>Group_Name</t>
+  </si>
+  <si>
+    <t>Target_Primary_Key_Constraint_Name</t>
+  </si>
+  <si>
+    <t>Target_Column_Comment</t>
+  </si>
+  <si>
+    <t>Target_Table_Comment</t>
+  </si>
+  <si>
+    <t>Target_Business_Key_Comment</t>
+  </si>
+  <si>
+    <t>Target_Foreign_Key_Constraint_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,12 +220,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -225,17 +235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,21 +292,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -512,63 +519,511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -576,9 +1031,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="14"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -586,9 +1044,12 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H3" s="14"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -596,9 +1057,11 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -606,9 +1069,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -616,9 +1082,12 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -626,44 +1095,197 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,23 +1293,191 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -697,11 +1487,12 @@
     <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -724,7 +1515,7 @@
       <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -739,589 +1530,17 @@
       <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1"/>
@@ -1332,7 +1551,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
@@ -1343,27 +1562,27 @@
       <c r="L3" s="1"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
     </row>
   </sheetData>
@@ -1372,7 +1591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1380,18 +1599,19 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1560,52 +1780,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1618,126 +1838,14 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metadata_ddl/Excel/turbovault4dbt_template.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\software\datavaultstarter\turbovault4dbt\metadata_ddl\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A8689-1D96-4A6A-948F-EEFA6EFCFC89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1E0D0-D25F-4F3C-8D9D-CB9B80F6EEF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,9 +525,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/metadata_ddl/Excel/turbovault4dbt_template.xlsx
+++ b/metadata_ddl/Excel/turbovault4dbt_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\software\datavaultstarter\turbovault4dbt\metadata_ddl\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e720170\software\datavaultstarter5\templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1E0D0-D25F-4F3C-8D9D-CB9B80F6EEF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB086A-1D65-4369-A5F3-AFE29656174B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21105" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,16 @@
     <sheet name="non_historized_link" sheetId="5" r:id="rId6"/>
     <sheet name="non_historized_satellite" sheetId="6" r:id="rId7"/>
     <sheet name="pit" sheetId="7" r:id="rId8"/>
+    <sheet name="link_eff_satellite" sheetId="9" r:id="rId9"/>
+    <sheet name="dbt comands" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -184,13 +186,31 @@
   </si>
   <si>
     <t>Target_Foreign_Key_Constraint_Name</t>
+  </si>
+  <si>
+    <t>Driving_Key</t>
+  </si>
+  <si>
+    <t>Link_Effectivity_Satellite</t>
+  </si>
+  <si>
+    <t>Hubs</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Satellites</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,11 +232,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -282,29 +297,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -523,96 +534,138 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="13"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B82F343-C922-4185-9641-DCC01101E069}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="186.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"dbt run -models ", CONCATENATE("pp_",source_data!E2))</f>
+        <v>dbt run -models  pp_</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"dbt run -models ", standard_hub!B2:B2)</f>
+        <v xml:space="preserve">dbt run -models </v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"dbt run -models ", non_historized_link!B2)</f>
+        <v xml:space="preserve">dbt run -models </v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"dbt run -models ", standard_satellite!B2:B9)</f>
+        <v xml:space="preserve">dbt run -models </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -622,10 +675,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -639,50 +692,49 @@
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -690,21 +742,19 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="M2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="M3" s="5"/>
+      <c r="J3" s="1"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -712,66 +762,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -784,10 +776,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:R1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,73 +795,85 @@
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -877,21 +881,29 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="M3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
@@ -902,49 +914,181 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P4" s="1"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="U24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -959,65 +1103,65 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1029,10 +1173,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1042,10 +1186,10 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1055,9 +1199,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -1070,7 +1215,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1083,7 +1228,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -1096,7 +1241,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -1298,62 +1443,61 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1369,7 +1513,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1382,7 +1526,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1463,125 +1607,524 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
+      <c r="N5" s="1"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="S49" s="3"/>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="S57" s="3"/>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="S58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1597,44 +2140,43 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1783,47 +2325,47 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1836,14 +2378,76 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9923C3-4B02-4458-A4AB-A66804A3339F}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="12"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
